--- a/data/income_statement/3digits/total/452_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/452_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>452-Maintenance and repair of motor vehicles</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>452-Maintenance and repair of motor vehicles</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,92 +841,107 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>1628180.5433</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>1902780.48739</v>
+        <v>1902915.02275</v>
       </c>
       <c r="E5" s="47" t="n">
         <v>2382836.09148</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>2793919.77921</v>
+        <v>2795198.26458</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>3085624.08644</v>
+        <v>3086258.7901</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>3358616.844</v>
+        <v>3363163.47607</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>4138159.187080001</v>
+        <v>4173831.25195</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>5346300.7166</v>
+        <v>5360141.76096</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>7402813.28514</v>
+        <v>7402813.285139999</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>8227677.89864</v>
+        <v>8254914.929819999</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>8783733.123219999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>8920812.346530002</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>12181278.919</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>1550710.26234</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>1820822.2759</v>
+        <v>1820952.81126</v>
       </c>
       <c r="E6" s="48" t="n">
         <v>2283570.7807</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>2669121.30182</v>
+        <v>2670399.78719</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>2913900.8166</v>
+        <v>2914513.1115</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>3193269.33113</v>
+        <v>3197657.92946</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>3929157.53528</v>
+        <v>3960196.46434</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>5063850.25052</v>
+        <v>5077504.22144</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>7042273.259499999</v>
+        <v>7042273.2595</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>7821762.91751</v>
+        <v>7847697.83671</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>8261324.542</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>8386946.458029998</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>11542402.769</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>29241.90196</v>
@@ -1040,70 +956,80 @@
         <v>41014.21868999999</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>56468.68953</v>
+        <v>56480.48048999999</v>
       </c>
       <c r="H7" s="48" t="n">
         <v>61794.5587</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>51940.166</v>
+        <v>55028.52592</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>84541.90574000002</v>
+        <v>84550.75478999999</v>
       </c>
       <c r="K7" s="48" t="n">
         <v>114583.50312</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>101170.22928</v>
+        <v>101210.27928</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>136536.95931</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>143593.45085</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>199235.437</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>48228.379</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>55210.3218</v>
+        <v>55214.3218</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>66344.06491999999</v>
+        <v>66344.06492</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>83784.25869999999</v>
+        <v>83784.25870000001</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>115254.58031</v>
+        <v>115265.19811</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>103552.95417</v>
+        <v>103710.98791</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>157061.4858</v>
+        <v>158606.26169</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>197908.56034</v>
+        <v>198086.78473</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>245956.52252</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>304744.75185</v>
+        <v>306006.81383</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>385871.62191</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>390272.43765</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>439640.713</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>20123.72288</v>
@@ -1115,34 +1041,39 @@
         <v>31800.33927</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>41729.44668</v>
+        <v>41729.44667999999</v>
       </c>
       <c r="G9" s="47" t="n">
         <v>42677.33182</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>50621.90425</v>
+        <v>50625.16759</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>57954.18987</v>
+        <v>57956.81113</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>100713.58853</v>
+        <v>100742.81271</v>
       </c>
       <c r="K9" s="47" t="n">
         <v>142975.54311</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>245432.39477</v>
+        <v>245628.67727</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>281093.07726</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>281396.21088</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>409777.789</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>5613.633809999999</v>
@@ -1160,28 +1091,33 @@
         <v>12809.90709</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>13827.66823</v>
+        <v>13830.93157</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>15856.07151</v>
+        <v>15858.69277</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>29630.94693</v>
+        <v>29650.67987</v>
       </c>
       <c r="K10" s="48" t="n">
         <v>42121.57171</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>52528.28793000001</v>
+        <v>52557.76093999999</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>53620.64494</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>53854.74539</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>86093.19100000001</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>14142.17897</v>
@@ -1205,22 +1141,27 @@
         <v>29502.06591</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>46428.21422</v>
+        <v>46437.70545999999</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>67013.3069</v>
+        <v>67013.30690000001</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>186702.60873</v>
+        <v>186869.41822</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>217164.01799</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>217232.47782</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>316427.648</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>367.9101</v>
@@ -1253,97 +1194,112 @@
         <v>6201.49811</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>10308.41433</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>10308.98767</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>7256.95</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>1608056.82042</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>1879732.74434</v>
+        <v>1879867.2797</v>
       </c>
       <c r="E13" s="47" t="n">
         <v>2351035.75221</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>2752190.33253</v>
+        <v>2753468.8179</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>3042946.75462</v>
+        <v>3043581.45828</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>3307994.93975</v>
+        <v>3312538.30848</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>4080204.99721</v>
+        <v>4115874.44082</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>5245587.12807</v>
+        <v>5259398.94825</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>7259837.742029999</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>7982245.50387</v>
+        <v>8009286.252549999</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>8502640.04596</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>8639416.135650001</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>11771501.13</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>1281805.29187</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>1520497.60287</v>
+        <v>1520575.1534</v>
       </c>
       <c r="E14" s="47" t="n">
         <v>1923414.92457</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>2261847.91044</v>
+        <v>2263088.38004</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>2511838.48538</v>
+        <v>2512669.82813</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>2734418.62492</v>
+        <v>2738135.39967</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>3363989.41477</v>
+        <v>3395535.73664</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>4438222.35949</v>
+        <v>4450129.81195</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>6222113.53411</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>6812766.25026</v>
+        <v>6839459.703460001</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>7210393.97746</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>7326828.40504</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>10251666.79</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>60633.35595</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>92526.80002</v>
+        <v>92572.33086</v>
       </c>
       <c r="E15" s="48" t="n">
         <v>121719.53288</v>
@@ -1358,103 +1314,118 @@
         <v>126642.21055</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>148615.29091</v>
+        <v>148971.10481</v>
       </c>
       <c r="J15" s="48" t="n">
         <v>372451.8857</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>805615.4293199999</v>
+        <v>805615.42932</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>919977.93909</v>
+        <v>922927.60707</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>293792.58305</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>297079.45582</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>387179.106</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>836535.05924</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>942599.07175</v>
+        <v>942624.4149</v>
       </c>
       <c r="E16" s="48" t="n">
         <v>1228870.22485</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>1416481.99404</v>
+        <v>1417717.01024</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>1536742.61278</v>
+        <v>1537011.01138</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>1692401.66271</v>
+        <v>1695002.74469</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>2126696.50021</v>
+        <v>2154046.27607</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>2568317.64222</v>
+        <v>2571760.09008</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>3392731.21445</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>3883890.88044</v>
+        <v>3900895.45292</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>4605079.24549</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>4676210.8096</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>7325187.225</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>382980.34499</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>482339.69844</v>
+        <v>482346.37498</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>570795.8432</v>
+        <v>570795.8431999999</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>702190.55409</v>
+        <v>702196.00749</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>807506.12213</v>
+        <v>808069.06628</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>896741.25911</v>
+        <v>897856.9518799998</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>1033384.8723</v>
+        <v>1037225.60441</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>1453934.4658</v>
+        <v>1462383.58348</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>1956852.2195</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>1921562.98414</v>
+        <v>1928015.7119</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>2200198.00002</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>2239906.42765</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>2388837.027</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>1656.53169</v>
@@ -1475,103 +1446,118 @@
         <v>18633.49255</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>55292.75135000001</v>
+        <v>55292.75135</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>43518.36577</v>
+        <v>43534.25269</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>66914.67083999999</v>
+        <v>66914.67084000001</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>87334.44659000001</v>
+        <v>87620.93156999999</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>111324.1489</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>113631.71197</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>150463.432</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>326251.52855</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>359235.14147</v>
+        <v>359292.1263000001</v>
       </c>
       <c r="E19" s="47" t="n">
         <v>427620.82764</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>490342.42209</v>
+        <v>490380.43786</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>531108.2692400001</v>
+        <v>530911.63015</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>573576.3148299999</v>
+        <v>574402.9088099999</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>716215.58244</v>
+        <v>720338.7041800001</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>807364.7685799999</v>
+        <v>809269.1362999999</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>1037724.20792</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>1169479.25361</v>
+        <v>1169826.54909</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>1292246.0685</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1312587.73061</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>1519834.34</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>281232.80558</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>307747.45211</v>
+        <v>307796.92042</v>
       </c>
       <c r="E20" s="47" t="n">
         <v>369427.31399</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>418325.49404</v>
+        <v>418354.98626</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>476255.44332</v>
+        <v>476352.30725</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>528719.12983</v>
+        <v>529535.7818699999</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>627468.7803400001</v>
+        <v>630658.63153</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>749456.9058299999</v>
+        <v>750833.62621</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>858707.5039899999</v>
+        <v>858707.50399</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>998528.4153699998</v>
+        <v>1007317.6931</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>1151986.05538</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1179230.66824</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>1286458.754</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>660.71186</v>
@@ -1598,136 +1584,156 @@
         <v>493.55962</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>710.5674200000001</v>
+        <v>710.56742</v>
       </c>
       <c r="L21" s="48" t="n">
         <v>904.65784</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>1442.48985</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>1080.90194</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>1399.979</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>41388.60099</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>42118.95467</v>
+        <v>42126.1577</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>54351.92941999999</v>
+        <v>54351.92942</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>67276.63277000001</v>
+        <v>67276.63277</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>72381.83842</v>
+        <v>72381.83842000001</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>80090.28365000001</v>
+        <v>80120.83214999999</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>100858.37231</v>
+        <v>101065.65688</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>114617.59171</v>
+        <v>114840.08873</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>149006.9197</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>163931.83073</v>
+        <v>164537.82557</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>189438.72608</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>193848.35139</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>187875.825</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>239183.49273</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>265062.15696</v>
+        <v>265104.42224</v>
       </c>
       <c r="E23" s="48" t="n">
         <v>314928.2709000001</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>350816.09358</v>
+        <v>350845.5858</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>403717.41354</v>
+        <v>403814.27747</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>448164.9053099999</v>
+        <v>448951.00885</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>526318.11485</v>
+        <v>529300.68147</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>634345.7545</v>
+        <v>635499.97786</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>708990.0168699999</v>
+        <v>708990.0168700001</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>833691.9268</v>
+        <v>841875.20969</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>961104.8394500001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>984301.4149099999</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>1097182.95</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>45018.72297</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>51487.68936</v>
+        <v>51495.20587999999</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>58193.51365000001</v>
+        <v>58193.51365</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>72016.92805000002</v>
+        <v>72025.4516</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>54852.82592</v>
+        <v>54559.3229</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>44857.185</v>
+        <v>44867.12693999999</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>88746.80210000002</v>
+        <v>89680.07265</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>57907.86275</v>
+        <v>58435.51008999999</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>179016.70393</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>170950.83824</v>
+        <v>162508.85599</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>140260.01312</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>133357.06237</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>233375.586</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>15126.97908</v>
@@ -1742,31 +1748,36 @@
         <v>26302.44694</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>29326.69991</v>
+        <v>29328.99282</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>25787.41998</v>
+        <v>25799.16423000001</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>34531.87967</v>
+        <v>34724.52330000001</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>51145.87517</v>
+        <v>51261.44882</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>87503.19222</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>190434.38012</v>
+        <v>190969.36248</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>123441.06557</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>124989.2524</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>126230.313</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>2113.84366</v>
@@ -1793,7 +1804,7 @@
         <v>1195.35582</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>4340.627119999999</v>
+        <v>4340.62712</v>
       </c>
       <c r="L26" s="48" t="n">
         <v>1148.20063</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>1804.62665</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>11.305</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>172.875</v>
@@ -1840,11 +1856,16 @@
       <c r="M27" s="48" t="n">
         <v>5129.03663</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>2503.438</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>2331.08016</v>
@@ -1856,7 +1877,7 @@
         <v>3116.92702</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>6322.62356</v>
+        <v>6322.623560000001</v>
       </c>
       <c r="G28" s="48" t="n">
         <v>5370.692599999999</v>
@@ -1868,22 +1889,27 @@
         <v>4359.65504</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>5155.00344</v>
+        <v>5172.31743</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>8011.40257</v>
+        <v>8011.402569999999</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>16484.7154</v>
+        <v>16538.83038</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>23089.23066</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>23255.30362</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>25859.849</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>245.91322</v>
@@ -1904,7 +1930,7 @@
         <v>208.01411</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>187.83623</v>
+        <v>321.39321</v>
       </c>
       <c r="J29" s="48" t="n">
         <v>317.09963</v>
@@ -1913,16 +1939,21 @@
         <v>736.1837399999999</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>490.6704300000001</v>
+        <v>490.67043</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>1530.53721</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>1530.63036</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>1209.982</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>461.30805</v>
@@ -1957,11 +1988,16 @@
       <c r="M30" s="48" t="n">
         <v>678.32123</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>727.593</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>177.8435</v>
@@ -1991,16 +2027,21 @@
         <v>410.90952</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>891.4252700000001</v>
+        <v>891.849</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>770.67616</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>774.2334299999999</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>865.278</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>4404.41916</v>
@@ -2015,31 +2056,36 @@
         <v>2243.97356</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>4276.94821</v>
+        <v>4279.24112</v>
       </c>
       <c r="H32" s="48" t="n">
         <v>4843.216759999999</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>10202.61254</v>
+        <v>10252.40148</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>14651.50978</v>
+        <v>14659.85121</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>35444.63128</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>131978.22547</v>
+        <v>132321.91423</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>30390.44897</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>30718.19817</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>40294.96</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>60.53341</v>
@@ -2069,19 +2115,24 @@
         <v>0</v>
       </c>
       <c r="L33" s="48" t="n">
-        <v>736.19491</v>
+        <v>736.1949099999999</v>
       </c>
       <c r="M33" s="48" t="n">
         <v>104.344</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>27.039</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
-        <v>96.25076999999999</v>
+        <v>96.25077</v>
       </c>
       <c r="D34" s="48" t="n">
         <v>181.40816</v>
@@ -2113,11 +2164,16 @@
       <c r="M34" s="48" t="n">
         <v>19.40219</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>51.556</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>5062.91215</v>
@@ -2126,7 +2182,7 @@
         <v>6838.546579999999</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>8526.103709999999</v>
+        <v>8526.103710000001</v>
       </c>
       <c r="F35" s="48" t="n">
         <v>11236.05156</v>
@@ -2135,28 +2191,33 @@
         <v>15010.52114</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>13355.38828</v>
+        <v>13367.13253</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>17092.18913</v>
+        <v>17101.48684</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>28547.15862</v>
+        <v>28637.07685</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>32946.96126</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>37058.32804</v>
+        <v>37195.08293</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>59924.44187</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>60975.15612000001</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>54679.313</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>10743.79907</v>
@@ -2168,34 +2229,39 @@
         <v>13333.75625</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>7953.321099999999</v>
+        <v>7953.4369</v>
       </c>
       <c r="G36" s="47" t="n">
         <v>17928.73117</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>11892.69714</v>
+        <v>11901.22189</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>20522.04759</v>
+        <v>20633.83643</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>25466.71608</v>
+        <v>25557.67919</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>55587.33345</v>
+        <v>55587.33345000001</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>135557.95935</v>
+        <v>136484.05093</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>43873.98637999999</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>44595.56394000001</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>58062.335</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>964.85643</v>
@@ -2207,7 +2273,7 @@
         <v>1094.05342</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>1610.14378</v>
+        <v>1610.25958</v>
       </c>
       <c r="G37" s="48" t="n">
         <v>1770.59654</v>
@@ -2228,13 +2294,18 @@
         <v>3037.57365</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>5189.0696</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>5203.84814</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>8349.093000000001</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>3171.12648</v>
@@ -2267,13 +2338,18 @@
         <v>2274.37716</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>5497.464910000001</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>5497.464909999999</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>1939.33</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>163.26855</v>
@@ -2285,7 +2361,7 @@
         <v>175.03276</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>74.7401</v>
+        <v>74.74010000000001</v>
       </c>
       <c r="G39" s="48" t="n">
         <v>31.06117</v>
@@ -2308,11 +2384,16 @@
       <c r="M39" s="48" t="n">
         <v>340.65421</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>87.03</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>3208.33461</v>
@@ -2327,31 +2408,36 @@
         <v>1471.42808</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>8439.29091</v>
+        <v>8439.290909999998</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>4662.05444</v>
+        <v>4662.054440000001</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>11919.77307</v>
+        <v>12031.06295</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>14053.65319</v>
+        <v>14144.60528</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>40535.41803</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>121301.0299</v>
+        <v>122175.28384</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>12470.7251</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>13015.69398</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>31473.172</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>0</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>51.68483999999999</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>1.471</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>60.23196</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>0.37757</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>3175.98104</v>
@@ -2447,28 +2543,33 @@
         <v>6577.33032</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>2834.70182</v>
+        <v>2843.22657</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>4107.83594</v>
+        <v>4108.3349</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>6696.76537</v>
+        <v>6696.776390000001</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>5206.340730000001</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>6607.79837</v>
+        <v>6659.63601</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>20324.01015</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>20485.84029</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>16212.239</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>26077.99794</v>
@@ -2480,34 +2581,39 @@
         <v>31559.31294</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>44381.96683</v>
+        <v>44486.80865000001</v>
       </c>
       <c r="G44" s="47" t="n">
         <v>50694.61240999999</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>67401.5716</v>
+        <v>67405.41276000001</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>80142.30897</v>
+        <v>80359.31302</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>94595.29773000001</v>
+        <v>94662.88855000002</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>115671.63442</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>243777.76235</v>
+        <v>243930.24934</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>236160.75635</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>237593.753</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>208826.099</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>25348.38684</v>
@@ -2519,37 +2625,42 @@
         <v>30123.65727</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>43007.52219999999</v>
+        <v>43112.36401999999</v>
       </c>
       <c r="G45" s="48" t="n">
         <v>49058.8838</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>63398.17945</v>
+        <v>63402.02061</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>77754.76337999999</v>
+        <v>77971.76743000001</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>91453.26724000002</v>
+        <v>91520.85806</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>111164.10648</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>181611.41166</v>
+        <v>181763.73065</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>190710.40889</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>191962.47654</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>175828.083</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>729.6111000000001</v>
+        <v>729.6111</v>
       </c>
       <c r="D46" s="48" t="n">
         <v>610.33686</v>
@@ -2576,58 +2687,68 @@
         <v>4507.527939999999</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>62166.35069</v>
+        <v>62166.51869</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>45450.34746000001</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>45631.27646</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>32998.016</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>23323.90504</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>34419.0906</v>
+        <v>34426.60712</v>
       </c>
       <c r="E47" s="47" t="n">
         <v>32721.63262</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>45984.08706</v>
+        <v>45887.65299</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>15556.18225</v>
+        <v>15264.97214</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>-8649.663760000001</v>
+        <v>-8640.343479999998</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>22614.32521</v>
+        <v>23411.44649999999</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-11008.27589</v>
+        <v>-10523.60883</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>95260.92828000001</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>-17950.50334</v>
+        <v>-26936.0818</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>-16333.66404</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>-23843.00217</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>92717.465</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>8896.608540000001</v>
+        <v>8896.608539999999</v>
       </c>
       <c r="D48" s="47" t="n">
         <v>13353.41449</v>
@@ -2639,31 +2760,36 @@
         <v>20911.56009</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>28960.20859</v>
+        <v>28973.52331</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>50274.1443</v>
+        <v>50286.6273</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>53301.86068999999</v>
+        <v>53431.03962</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>45083.87704</v>
+        <v>45137.05032</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>58462.46397</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>131692.43781</v>
+        <v>131839.3202</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>99739.39010999999</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>101958.16724</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>136906.823</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>37.79749</v>
@@ -2678,13 +2804,13 @@
         <v>416.194</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>436.9576700000001</v>
+        <v>436.95767</v>
       </c>
       <c r="H49" s="48" t="n">
         <v>144.57808</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>663.4210400000001</v>
+        <v>663.8305399999999</v>
       </c>
       <c r="J49" s="48" t="n">
         <v>205.15241</v>
@@ -2693,16 +2819,21 @@
         <v>769.96704</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>209.43144</v>
+        <v>211.24012</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>665.6959000000001</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>665.6959000000002</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>678.276</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>8858.81105</v>
@@ -2717,70 +2848,80 @@
         <v>20495.36609</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>28523.25092</v>
+        <v>28536.56564</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>50129.56622</v>
+        <v>50142.04922</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>52638.43965000001</v>
+        <v>52767.20908</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>44878.72463</v>
+        <v>44931.89791</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>57692.49693</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>131483.00637</v>
+        <v>131628.08008</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>99073.69420999999</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>101292.47134</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>136228.547</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>11588.09603</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>10603.40338</v>
+        <v>10603.64689</v>
       </c>
       <c r="E51" s="47" t="n">
         <v>84369.14679</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>19239.76046</v>
+        <v>19239.77456</v>
       </c>
       <c r="G51" s="47" t="n">
         <v>17858.61248</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>58894.17579</v>
+        <v>58897.46979</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>35072.25818</v>
+        <v>35188.38432</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>64248.20125</v>
+        <v>64305.43216</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>40600.86001</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>66874.63575</v>
+        <v>67147.75033</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>63530.38624</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>64124.41369</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>72384.802</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>4.96285</v>
@@ -2810,37 +2951,42 @@
         <v>92.87661999999999</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>706.5977800000001</v>
+        <v>706.5977799999999</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>1201.32803</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>1308.845</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>2038.442</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>502.13105</v>
+        <v>502.1310500000001</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>466.3201800000001</v>
+        <v>466.32018</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>779.7732</v>
+        <v>779.7732000000001</v>
       </c>
       <c r="F53" s="48" t="n">
         <v>856.7769700000001</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>607.27818</v>
+        <v>607.2781799999999</v>
       </c>
       <c r="H53" s="48" t="n">
         <v>901.5025000000001</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>1344.37456</v>
+        <v>1407.11021</v>
       </c>
       <c r="J53" s="48" t="n">
         <v>1033.73249</v>
@@ -2852,97 +2998,112 @@
         <v>956.1609200000001</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>1930.01913</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>1934.1394</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>1324.037</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>11081.00213</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>9889.5064</v>
+        <v>9889.74991</v>
       </c>
       <c r="E54" s="48" t="n">
         <v>83293.96984000001</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>18074.22746</v>
+        <v>18074.24156</v>
       </c>
       <c r="G54" s="48" t="n">
         <v>17159.59411</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>57956.13634</v>
+        <v>57959.43034000001</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>33592.16183999999</v>
+        <v>33645.55233</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>62293.48845</v>
+        <v>62350.71936</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>39619.26586</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>65211.87705</v>
+        <v>65484.99163</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>60399.03908</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>60881.42929</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>69022.323</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>20632.41755</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>37169.10171</v>
+        <v>37176.37472</v>
       </c>
       <c r="E55" s="47" t="n">
         <v>-32788.91012</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>47655.88669</v>
+        <v>47559.43852</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>26657.77836</v>
+        <v>26379.88297</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>-17269.69525</v>
+        <v>-17251.18597</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>40843.92772</v>
+        <v>41654.1018</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-30172.60009999999</v>
+        <v>-29691.99067</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>113122.53224</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>46867.29872</v>
+        <v>37755.48806999999</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>19875.33983</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>13990.75138</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>157239.486</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>10801.74678</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>12004.92461</v>
+        <v>12006.42791</v>
       </c>
       <c r="E56" s="47" t="n">
         <v>15960.12385</v>
@@ -2951,67 +3112,75 @@
         <v>17377.52395</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>17919.6271</v>
+        <v>17956.01112</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>17870.83892</v>
+        <v>17871.91215</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>22186.07485</v>
+        <v>22247.81797</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>22933.83439</v>
+        <v>23116.09989</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>39058.4494</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>43226.34831</v>
+        <v>43357.79893</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>45471.65354000001</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>46306.2694</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>71963.359</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>9830.670770000001</v>
+        <v>9830.670769999999</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>25164.1771</v>
+        <v>25169.94681</v>
       </c>
       <c r="E57" s="47" t="n">
         <v>-48749.03397</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>30278.36274</v>
+        <v>30181.91457</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>8738.151260000002</v>
+        <v>8423.87185</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-35140.53417</v>
+        <v>-35123.09812</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>18657.85287</v>
+        <v>19406.28383</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-53106.43449</v>
+        <v>-52808.09056</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>74064.08284</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>3640.950409999996</v>
+        <v>-5602.310860000001</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>-25596.31371</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>-32315.51802</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>85276.12699999999</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>3858</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>4032</v>
+        <v>4033</v>
       </c>
       <c r="E59" s="35" t="n">
         <v>4149</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>4114</v>
+        <v>4115</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>4339</v>
+        <v>4343</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>4311</v>
+        <v>4321</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>4359</v>
+        <v>4392</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>4513</v>
+        <v>4535</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>4802</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>4629</v>
+        <v>5043</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>4815</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>5379</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>5772</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>